--- a/input.xlsx
+++ b/input.xlsx
@@ -1079,7 +1079,7 @@
   </sheetPr>
   <dimension ref="A1:DM60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0" zoomScale="53" zoomScaleNormal="55">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0" zoomScale="53" zoomScaleNormal="55">
       <selection activeCell="K27" sqref="K27:Y60"/>
     </sheetView>
   </sheetViews>
@@ -1112,8 +1112,8 @@
     <col customWidth="1" max="28" min="28" style="50" width="20.5546875"/>
     <col bestFit="1" customWidth="1" max="29" min="29" style="50" width="35.33203125"/>
     <col customWidth="1" max="117" min="30" style="50" width="18.6640625"/>
-    <col customWidth="1" max="123" min="118" style="50" width="9.109375"/>
-    <col customWidth="1" max="16384" min="124" style="50" width="9.109375"/>
+    <col customWidth="1" max="129" min="118" style="50" width="9.109375"/>
+    <col customWidth="1" max="16384" min="130" style="50" width="9.109375"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="23.4" r="1" s="56" spans="1:117">
@@ -3079,7 +3079,7 @@
         <v>38</v>
       </c>
       <c r="K27" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="45" t="n">
         <v>1</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="O27" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="45" t="n">
         <v>1</v>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" s="45" t="n">
         <v>1</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" s="45" t="n">
         <v>1</v>
@@ -3128,7 +3128,7 @@
         <v/>
       </c>
       <c r="AA27" s="45" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AB27" s="45">
         <f>Z27-AA27</f>
@@ -3174,10 +3174,10 @@
         <v>0</v>
       </c>
       <c r="N28" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="45" t="n">
         <v>1</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="45" t="n">
         <v>1</v>
@@ -3195,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="U28" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" s="45" t="n">
         <v>1</v>
@@ -3207,14 +3207,14 @@
         <v>0</v>
       </c>
       <c r="Y28" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" s="22">
         <f>(K28+M28+N28+P28+Q28+S28+T28+V28+W28+Y28)*2.5+(L28+O28+R28+U28+X28)*1.25</f>
         <v/>
       </c>
       <c r="AA28" s="45" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB28" s="45">
         <f>Z28-AA28</f>
@@ -3254,10 +3254,10 @@
         <v>1</v>
       </c>
       <c r="L29" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="45" t="n">
         <v>0</v>
@@ -3266,22 +3266,22 @@
         <v>1</v>
       </c>
       <c r="P29" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="45" t="n">
         <v>0</v>
       </c>
       <c r="R29" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="45" t="n">
         <v>1</v>
@@ -3290,10 +3290,10 @@
         <v>1</v>
       </c>
       <c r="X29" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="22">
         <f>(K29+M29+N29+P29+Q29+S29+T29+V29+W29+Y29)*2.5+(L29+O29+R29+U29+X29)*1.25</f>
@@ -3349,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="P30" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="45" t="n">
         <v>1</v>
@@ -3370,7 +3370,7 @@
         <v>1</v>
       </c>
       <c r="W30" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="45" t="n">
         <v>1</v>
@@ -3383,7 +3383,7 @@
         <v/>
       </c>
       <c r="AA30" s="45" t="n">
-        <v>15</v>
+        <v>16.25</v>
       </c>
       <c r="AB30" s="45">
         <f>Z30-AA30</f>
@@ -3423,37 +3423,37 @@
         <v>0</v>
       </c>
       <c r="L31" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="45" t="n">
         <v>1</v>
       </c>
       <c r="N31" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="45" t="n">
         <v>1</v>
       </c>
       <c r="R31" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="45" t="n">
         <v>1</v>
       </c>
       <c r="T31" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="45" t="n">
         <v>1</v>
       </c>
       <c r="V31" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="45" t="n">
         <v>0</v>
@@ -3462,14 +3462,14 @@
         <v>0</v>
       </c>
       <c r="Y31" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31" s="22">
         <f>(K31+M31+N31+P31+Q31+S31+T31+V31+W31+Y31)*2.5+(L31+O31+R31+U31+X31)*1.25</f>
         <v/>
       </c>
       <c r="AA31" s="45" t="n">
-        <v>15</v>
+        <v>16.25</v>
       </c>
       <c r="AB31" s="45">
         <f>Z31-AA31</f>
@@ -3524,10 +3524,10 @@
         <v>0</v>
       </c>
       <c r="Q32" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" s="45" t="n">
         <v>0</v>
@@ -3542,20 +3542,20 @@
         <v>0</v>
       </c>
       <c r="W32" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32" s="45" t="n">
         <v>1</v>
       </c>
       <c r="Y32" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32" s="22">
         <f>(K32+M32+N32+P32+Q32+S32+T32+V32+W32+Y32)*2.5+(L32+O32+R32+U32+X32)*1.25</f>
         <v/>
       </c>
       <c r="AA32" s="45" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AB32" s="45">
         <f>Z32-AA32</f>
@@ -3592,7 +3592,7 @@
         <v>38</v>
       </c>
       <c r="K33" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="45" t="n">
         <v>0</v>
@@ -3604,13 +3604,13 @@
         <v>0</v>
       </c>
       <c r="O33" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="45" t="n">
         <v>0</v>
@@ -3619,19 +3619,19 @@
         <v>0</v>
       </c>
       <c r="T33" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" s="45" t="n">
         <v>1</v>
       </c>
       <c r="W33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="45" t="n">
         <v>1</v>
@@ -3641,7 +3641,7 @@
         <v/>
       </c>
       <c r="AA33" s="45" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AB33" s="45">
         <f>Z33-AA33</f>
@@ -3678,7 +3678,7 @@
         <v>40</v>
       </c>
       <c r="K34" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="45" t="n">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="45" t="n">
         <v>0</v>
@@ -3699,16 +3699,16 @@
         <v>0</v>
       </c>
       <c r="R34" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="45" t="n">
         <v>0</v>
       </c>
       <c r="U34" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="45" t="n">
         <v>1</v>
@@ -3720,14 +3720,14 @@
         <v>0</v>
       </c>
       <c r="Y34" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34" s="22">
         <f>(K34+M34+N34+P34+Q34+S34+T34+V34+W34+Y34)*2.5+(L34+O34+R34+U34+X34)*1.25</f>
         <v/>
       </c>
       <c r="AA34" s="45" t="n">
-        <v>12.5</v>
+        <v>13.75</v>
       </c>
       <c r="AB34" s="45">
         <f>Z34-AA34</f>
@@ -3767,37 +3767,37 @@
         <v>0</v>
       </c>
       <c r="L35" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="45" t="n">
         <v>1</v>
       </c>
       <c r="N35" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="45" t="n">
         <v>0</v>
       </c>
       <c r="Q35" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" s="45" t="n">
         <v>0</v>
       </c>
       <c r="U35" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="45" t="n">
         <v>1</v>
@@ -3806,14 +3806,14 @@
         <v>0</v>
       </c>
       <c r="Y35" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="22">
         <f>(K35+M35+N35+P35+Q35+S35+T35+V35+W35+Y35)*2.5+(L35+O35+R35+U35+X35)*1.25</f>
         <v/>
       </c>
       <c r="AA35" s="45" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AB35" s="45">
         <f>Z35-AA35</f>
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="45" t="n">
         <v>0</v>
@@ -3859,34 +3859,34 @@
         <v>0</v>
       </c>
       <c r="O36" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="45" t="n">
         <v>1</v>
       </c>
       <c r="R36" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36" s="45" t="n">
         <v>0</v>
       </c>
       <c r="T36" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36" s="45" t="n">
         <v>1</v>
       </c>
       <c r="W36" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="22" t="n">
         <v>0</v>
@@ -3896,7 +3896,7 @@
         <v/>
       </c>
       <c r="AA36" s="45" t="n">
-        <v>15</v>
+        <v>13.75</v>
       </c>
       <c r="AB36" s="45">
         <f>Z36-AA36</f>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="45" t="n">
         <v>1</v>
@@ -3945,41 +3945,41 @@
         <v>0</v>
       </c>
       <c r="P37" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="45" t="n">
         <v>0</v>
       </c>
       <c r="R37" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="45" t="n">
         <v>1</v>
       </c>
       <c r="T37" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" s="45" t="n">
         <v>1</v>
       </c>
       <c r="V37" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="45" t="n">
         <v>1</v>
       </c>
       <c r="X37" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="22">
         <f>(K37+M37+N37+P37+Q37+S37+T37+V37+W37+Y37)*2.5+(L37+O37+R37+U37+X37)*1.25</f>
         <v/>
       </c>
       <c r="AA37" s="45" t="n">
-        <v>17.5</v>
+        <v>13.75</v>
       </c>
       <c r="AB37" s="45">
         <f>Z37-AA37</f>
@@ -4025,47 +4025,47 @@
         <v>1</v>
       </c>
       <c r="N38" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S38" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38" s="22">
         <f>(K38+M38+N38+P38+Q38+S38+T38+V38+W38+Y38)*2.5+(L38+O38+R38+U38+X38)*1.25</f>
         <v/>
       </c>
       <c r="AA38" s="45" t="n">
-        <v>15</v>
+        <v>16.25</v>
       </c>
       <c r="AB38" s="45">
         <f>Z38-AA38</f>
@@ -4099,16 +4099,16 @@
         <v>41</v>
       </c>
       <c r="K39" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="45" t="n">
         <v>1</v>
       </c>
       <c r="M39" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="45" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>1</v>
       </c>
       <c r="R39" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" s="45" t="n">
         <v>0</v>
@@ -4132,23 +4132,23 @@
         <v>0</v>
       </c>
       <c r="V39" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W39" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39" s="45" t="n">
         <v>0</v>
       </c>
       <c r="Y39" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39" s="22">
         <f>(K39+M39+N39+P39+Q39+S39+T39+V39+W39+Y39)*2.5+(L39+O39+R39+U39+X39)*1.25</f>
         <v/>
       </c>
       <c r="AA39" s="45" t="n">
-        <v>12.5</v>
+        <v>16.25</v>
       </c>
       <c r="AB39" s="45">
         <f>Z39-AA39</f>
@@ -4182,10 +4182,10 @@
         <v>41</v>
       </c>
       <c r="K40" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="22" t="n">
         <v>0</v>
@@ -4203,13 +4203,13 @@
         <v>1</v>
       </c>
       <c r="R40" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="45" t="n">
         <v>0</v>
       </c>
       <c r="T40" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40" s="45" t="n">
         <v>0</v>
@@ -4221,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="X40" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40" s="22" t="n">
         <v>0</v>
@@ -4231,7 +4231,7 @@
         <v/>
       </c>
       <c r="AA40" s="45" t="n">
-        <v>10</v>
+        <v>16.25</v>
       </c>
       <c r="AB40" s="45">
         <f>Z40-AA40</f>
@@ -4271,10 +4271,10 @@
         <v>41</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="22" t="n">
         <v>1</v>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="45" t="n">
         <v>0</v>
@@ -4298,19 +4298,19 @@
         <v>0</v>
       </c>
       <c r="T41" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="45" t="n">
         <v>0</v>
       </c>
       <c r="X41" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="45" t="n">
         <v>1</v>
@@ -4320,7 +4320,7 @@
         <v/>
       </c>
       <c r="AA41" s="45" t="n">
-        <v>15</v>
+        <v>16.25</v>
       </c>
       <c r="AB41" s="45">
         <f>Z41-AA41</f>
@@ -4357,10 +4357,10 @@
         <v>1</v>
       </c>
       <c r="L42" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="45" t="n">
         <v>1</v>
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="S42" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" s="45" t="n">
         <v>0</v>
@@ -4387,10 +4387,10 @@
         <v>0</v>
       </c>
       <c r="V42" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W42" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42" s="45" t="n">
         <v>0</v>
@@ -4403,7 +4403,7 @@
         <v/>
       </c>
       <c r="AA42" s="45" t="n">
-        <v>15</v>
+        <v>13.75</v>
       </c>
       <c r="AB42" s="45">
         <f>Z42-AA42</f>
@@ -4446,16 +4446,16 @@
         <v>0</v>
       </c>
       <c r="M43" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" s="45" t="n">
         <v>0</v>
       </c>
       <c r="P43" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="45" t="n">
         <v>1</v>
@@ -4464,10 +4464,10 @@
         <v>0</v>
       </c>
       <c r="S43" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43" s="45" t="n">
         <v>0</v>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y43" s="45" t="n">
         <v>1</v>
@@ -4489,7 +4489,7 @@
         <v/>
       </c>
       <c r="AA43" s="45" t="n">
-        <v>15</v>
+        <v>13.75</v>
       </c>
       <c r="AB43" s="45">
         <f>Z43-AA43</f>
@@ -4532,10 +4532,10 @@
         <v>1</v>
       </c>
       <c r="N44" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="45" t="n">
         <v>0</v>
@@ -4544,13 +4544,13 @@
         <v>1</v>
       </c>
       <c r="R44" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" s="45" t="n">
         <v>0</v>
       </c>
       <c r="T44" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44" s="45" t="n">
         <v>0</v>
@@ -4559,20 +4559,20 @@
         <v>0</v>
       </c>
       <c r="W44" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="22">
         <f>(K44+M44+N44+P44+Q44+S44+T44+V44+W44+Y44)*2.5+(L44+O44+R44+U44+X44)*1.25</f>
         <v/>
       </c>
       <c r="AA44" s="45" t="n">
-        <v>15</v>
+        <v>16.25</v>
       </c>
       <c r="AB44" s="45">
         <f>Z44-AA44</f>
@@ -4612,7 +4612,7 @@
         <v>45</v>
       </c>
       <c r="K45" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="45" t="n">
         <v>0</v>
@@ -4621,31 +4621,31 @@
         <v>1</v>
       </c>
       <c r="N45" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="45" t="n">
         <v>0</v>
       </c>
       <c r="P45" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S45" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45" s="45" t="n">
         <v>0</v>
       </c>
       <c r="V45" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45" s="45" t="n">
         <v>1</v>
@@ -4654,14 +4654,14 @@
         <v>0</v>
       </c>
       <c r="Y45" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45" s="22">
         <f>(K45+M45+N45+P45+Q45+S45+T45+V45+W45+Y45)*2.5+(L45+O45+R45+U45+X45)*1.25</f>
         <v/>
       </c>
       <c r="AA45" s="45" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB45" s="45">
         <f>Z45-AA45</f>
@@ -4692,7 +4692,9 @@
       <c r="X46" s="47" t="n"/>
       <c r="Y46" s="47" t="n"/>
       <c r="Z46" s="22" t="n"/>
-      <c r="AA46" s="47" t="n"/>
+      <c r="AA46" s="47" t="n">
+        <v>16.25</v>
+      </c>
       <c r="AB46" s="45">
         <f>Z46-AA46</f>
         <v/>
@@ -4734,22 +4736,22 @@
         <v>0</v>
       </c>
       <c r="N47" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="45" t="n">
         <v>1</v>
       </c>
       <c r="Q47" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" s="45" t="n">
         <v>0</v>
@@ -4758,13 +4760,13 @@
         <v>0</v>
       </c>
       <c r="V47" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W47" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X47" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="45" t="n">
         <v>1</v>
@@ -4774,7 +4776,7 @@
         <v/>
       </c>
       <c r="AA47" s="45" t="n">
-        <v>15</v>
+        <v>13.75</v>
       </c>
       <c r="AB47" s="45">
         <f>Z47-AA47</f>
@@ -4823,22 +4825,22 @@
         <v>1</v>
       </c>
       <c r="O48" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="45" t="n">
         <v>0</v>
       </c>
       <c r="R48" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" s="45" t="n">
         <v>1</v>
       </c>
       <c r="T48" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="45" t="n">
         <v>0</v>
@@ -4847,20 +4849,20 @@
         <v>0</v>
       </c>
       <c r="W48" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X48" s="45" t="n">
         <v>0</v>
       </c>
       <c r="Y48" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="22">
         <f>(K48+M48+N48+P48+Q48+S48+T48+V48+W48+Y48)*2.5+(L48+O48+R48+U48+X48)*1.25</f>
         <v/>
       </c>
       <c r="AA48" s="45" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AB48" s="45">
         <f>Z48-AA48</f>
@@ -4900,19 +4902,19 @@
         <v>1</v>
       </c>
       <c r="L49" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" s="45" t="n">
         <v>0</v>
       </c>
       <c r="N49" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="45" t="n">
         <v>1</v>
@@ -4921,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="45" t="n">
         <v>0</v>
@@ -4946,7 +4948,7 @@
         <v/>
       </c>
       <c r="AA49" s="45" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AB49" s="45">
         <f>Z49-AA49</f>
@@ -5010,22 +5012,22 @@
         <v>1</v>
       </c>
       <c r="T50" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y50" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="22">
         <f>(K50+M50+N50+P50+Q50+S50+T50+V50+W50+Y50)*2.5+(L50+O50+R50+U50+X50)*1.25</f>
@@ -5066,19 +5068,19 @@
         <v>49</v>
       </c>
       <c r="K51" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="45" t="n">
         <v>0</v>
       </c>
       <c r="M51" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" s="45" t="n">
         <v>1</v>
       </c>
       <c r="O51" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="45" t="n">
         <v>0</v>
@@ -5093,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="T51" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" s="45" t="n">
         <v>0</v>
@@ -5102,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" s="45" t="n">
         <v>0</v>
@@ -5115,7 +5117,7 @@
         <v/>
       </c>
       <c r="AA51" s="45" t="n">
-        <v>10</v>
+        <v>16.25</v>
       </c>
       <c r="AB51" s="45">
         <f>Z51-AA51</f>
@@ -5148,7 +5150,9 @@
       <c r="X52" s="28" t="n"/>
       <c r="Y52" s="28" t="n"/>
       <c r="Z52" s="22" t="n"/>
-      <c r="AA52" s="47" t="n"/>
+      <c r="AA52" s="47" t="n">
+        <v>17.5</v>
+      </c>
       <c r="AB52" s="45">
         <f>Z52-AA52</f>
         <v/>
@@ -5184,7 +5188,7 @@
         <v>51</v>
       </c>
       <c r="K53" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" s="25" t="n">
         <v>1</v>
@@ -5193,22 +5197,22 @@
         <v>0</v>
       </c>
       <c r="N53" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" s="25" t="n">
         <v>0</v>
       </c>
       <c r="Q53" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
         <v>1</v>
@@ -5226,14 +5230,14 @@
         <v>0</v>
       </c>
       <c r="Y53" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="22">
         <f>(K53+M53+N53+P53+Q53+S53+T53+V53+W53+Y53)*2.5+(L53+O53+R53+U53+X53)*1.25</f>
         <v/>
       </c>
       <c r="AA53" s="45" t="n">
-        <v>15</v>
+        <v>13.75</v>
       </c>
       <c r="AB53" s="45">
         <f>Z53-AA53</f>
@@ -5279,19 +5283,19 @@
         <v>1</v>
       </c>
       <c r="M54" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" s="45" t="n">
         <v>0</v>
       </c>
       <c r="Q54" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54" s="45" t="n">
         <v>1</v>
@@ -5315,14 +5319,14 @@
         <v>1</v>
       </c>
       <c r="Y54" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="22">
         <f>(K54+M54+N54+P54+Q54+S54+T54+V54+W54+Y54)*2.5+(L54+O54+R54+U54+X54)*1.25</f>
         <v/>
       </c>
       <c r="AA54" s="45" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AB54" s="45">
         <f>Z54-AA54</f>
@@ -5368,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" s="45" t="n">
         <v>0</v>
@@ -5377,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" s="45" t="n">
         <v>0</v>
@@ -5386,29 +5390,29 @@
         <v>0</v>
       </c>
       <c r="T55" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U55" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V55" s="45" t="n">
         <v>0</v>
       </c>
       <c r="W55" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X55" s="45" t="n">
         <v>0</v>
       </c>
       <c r="Y55" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z55" s="22">
         <f>(K55+M55+N55+P55+Q55+S55+T55+V55+W55+Y55)*2.5+(L55+O55+R55+U55+X55)*1.25</f>
         <v/>
       </c>
       <c r="AA55" s="45" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AB55" s="45">
         <f>Z55-AA55</f>
@@ -5448,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" s="45" t="n">
         <v>1</v>
@@ -5481,20 +5485,20 @@
         <v>0</v>
       </c>
       <c r="W56" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X56" s="45" t="n">
         <v>1</v>
       </c>
       <c r="Y56" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z56" s="22">
         <f>(K56+M56+N56+P56+Q56+S56+T56+V56+W56+Y56)*2.5+(L56+O56+R56+U56+X56)*1.25</f>
         <v/>
       </c>
       <c r="AA56" s="45" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AB56" s="45">
         <f>Z56-AA56</f>
@@ -5537,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="N57" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" s="45" t="n">
         <v>0</v>
@@ -5546,28 +5550,28 @@
         <v>0</v>
       </c>
       <c r="Q57" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" s="45" t="n">
         <v>0</v>
       </c>
       <c r="T57" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U57" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W57" s="45" t="n">
         <v>0</v>
       </c>
       <c r="X57" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y57" s="45" t="n">
         <v>1</v>
@@ -5614,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="L58" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" s="45" t="n">
         <v>0</v>
@@ -5629,19 +5633,19 @@
         <v>1</v>
       </c>
       <c r="Q58" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58" s="45" t="n">
         <v>1</v>
       </c>
       <c r="S58" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T58" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U58" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58" s="45" t="n">
         <v>0</v>
@@ -5650,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="X58" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="45" t="n">
         <v>0</v>
@@ -5660,7 +5664,7 @@
         <v/>
       </c>
       <c r="AA58" s="45" t="n">
-        <v>17.5</v>
+        <v>13.75</v>
       </c>
       <c r="AB58" s="45">
         <f>Z58-AA58</f>
@@ -5703,28 +5707,28 @@
         <v>0</v>
       </c>
       <c r="M59" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" s="45" t="n">
         <v>0</v>
       </c>
       <c r="Q59" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="45" t="n">
         <v>0</v>
       </c>
       <c r="S59" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59" s="45" t="n">
         <v>0</v>
@@ -5733,7 +5737,7 @@
         <v>1</v>
       </c>
       <c r="W59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X59" s="45" t="n">
         <v>1</v>
@@ -5746,7 +5750,7 @@
         <v/>
       </c>
       <c r="AA59" s="45" t="n">
-        <v>15</v>
+        <v>13.75</v>
       </c>
       <c r="AB59" s="45">
         <f>Z59-AA59</f>
@@ -5781,19 +5785,19 @@
         <v>60</v>
       </c>
       <c r="K60" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="45" t="n">
         <v>0</v>
       </c>
       <c r="M60" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60" s="45" t="n">
         <v>1</v>
       </c>
       <c r="O60" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" s="45" t="n">
         <v>0</v>
@@ -5802,28 +5806,28 @@
         <v>0</v>
       </c>
       <c r="R60" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" s="45" t="n">
         <v>0</v>
       </c>
       <c r="T60" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V60" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W60" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y60" s="45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z60" s="22">
         <f>(K60+M60+N60+P60+Q60+S60+T60+V60+W60+Y60)*2.5+(L60+O60+R60+U60+X60)*1.25</f>
